--- a/Reducer/17.xlsx
+++ b/Reducer/17.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artem\Desktop\Харкевич\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DE793-AE48-48EE-A54F-F56BDBE59BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030"/>
+    <workbookView xWindow="2352" yWindow="1560" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -594,7 +609,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,7 +816,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,9 +849,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,6 +901,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1044,23 +1093,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="2"/>
+    <col min="1" max="6" width="9.109375" style="2"/>
     <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="2"/>
+    <col min="8" max="12" width="9.109375" style="2"/>
     <col min="13" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4.8</v>
       </c>
@@ -1122,13 +1171,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H3" s="7"/>
       <c r="I3" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>A2*B2*1000</f>
         <v>2880</v>
@@ -1153,12 +1202,12 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1187,7 +1236,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.94</v>
       </c>
@@ -1218,7 +1267,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1297,7 @@
         <v>32.394425880036344</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1278,7 +1327,7 @@
         <v>124.43346869039561</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1357,7 @@
         <v>453.92732097606608</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -1325,7 +1374,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1346,7 +1395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1372,7 +1421,7 @@
         <v>409.09090909090907</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1391,12 +1440,12 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G20" s="1">
         <v>125</v>
       </c>
@@ -1406,7 +1455,7 @@
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1.1499999999999999</v>
       </c>
@@ -1458,7 +1507,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1481,7 +1530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f>2*G20*COS(10*PI()/180)/(J8+1)/L20</f>
         <v>24.620193825305201</v>
@@ -1507,7 +1556,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1516,12 +1565,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H27" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -1544,7 +1593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <f>I25+2*L20</f>
         <v>54</v>
@@ -1574,7 +1623,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1594,7 +1643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1.0649999999999999</v>
       </c>
@@ -1617,7 +1666,7 @@
       </c>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB33" s="16"/>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
@@ -1631,7 +1680,7 @@
       <c r="AL33" s="16"/>
       <c r="AM33" s="16"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>56</v>
       </c>
@@ -1660,7 +1709,7 @@
       <c r="AL34" s="16"/>
       <c r="AM34" s="16"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f>2*K10*1000/I25</f>
         <v>1295.7770352014538</v>
@@ -1694,7 +1743,7 @@
       <c r="AL35" s="16"/>
       <c r="AM35" s="16"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB36" s="16"/>
       <c r="AC36" s="16"/>
       <c r="AD36" s="16"/>
@@ -1708,7 +1757,7 @@
       <c r="AL36" s="16"/>
       <c r="AM36" s="16"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1743,7 +1792,7 @@
       <c r="AL37" s="16"/>
       <c r="AM37" s="16"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -1781,7 +1830,7 @@
       <c r="AL38" s="16"/>
       <c r="AM38" s="16"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB39" s="16"/>
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
@@ -1795,7 +1844,7 @@
       <c r="AL39" s="16"/>
       <c r="AM39" s="16"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -1830,7 +1879,7 @@
       <c r="AL40" s="16"/>
       <c r="AM40" s="16"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1.75</v>
       </c>
@@ -1870,7 +1919,7 @@
       <c r="AL41" s="16"/>
       <c r="AM41" s="16"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB42" s="16"/>
       <c r="AC42" s="16"/>
       <c r="AD42" s="16"/>
@@ -1884,7 +1933,7 @@
       <c r="AL42" s="16"/>
       <c r="AM42" s="16"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1916,7 +1965,7 @@
       <c r="AL43" s="16"/>
       <c r="AM43" s="16"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f>K41/K38</f>
         <v>61.929693343305914</v>
@@ -1954,7 +2003,7 @@
       <c r="AL44" s="16"/>
       <c r="AM44" s="16"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB45" s="16"/>
       <c r="AC45" s="16"/>
       <c r="AD45" s="16"/>
@@ -1968,7 +2017,7 @@
       <c r="AL45" s="16"/>
       <c r="AM45" s="16"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>3</v>
       </c>
@@ -1997,7 +2046,7 @@
       <c r="AL46" s="16"/>
       <c r="AM46" s="16"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB47" s="16"/>
       <c r="AC47" s="16"/>
       <c r="AD47" s="16"/>
@@ -2011,7 +2060,7 @@
       <c r="AL47" s="16"/>
       <c r="AM47" s="16"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
@@ -2049,7 +2098,7 @@
       <c r="AL48" s="16"/>
       <c r="AM48" s="16"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>25</v>
       </c>
@@ -2089,7 +2138,7 @@
       <c r="AL49" s="16"/>
       <c r="AM49" s="16"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="E50" s="4">
         <v>20</v>
       </c>
@@ -2110,7 +2159,7 @@
       <c r="AL50" s="16"/>
       <c r="AM50" s="16"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB51" s="16"/>
       <c r="AC51" s="16"/>
       <c r="AD51" s="16"/>
@@ -2124,7 +2173,7 @@
       <c r="AL51" s="16"/>
       <c r="AM51" s="16"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>4</v>
       </c>
@@ -2153,7 +2202,7 @@
       <c r="AL52" s="16"/>
       <c r="AM52" s="16"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB53" s="16"/>
       <c r="AC53" s="16"/>
       <c r="AD53" s="16"/>
@@ -2167,7 +2216,7 @@
       <c r="AL53" s="16"/>
       <c r="AM53" s="16"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>43</v>
       </c>
@@ -2211,7 +2260,7 @@
       <c r="AL54" s="16"/>
       <c r="AM54" s="16"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f>I25</f>
         <v>50</v>
@@ -2265,7 +2314,7 @@
       <c r="AL55" s="16"/>
       <c r="AM55" s="16"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="K56" s="1">
         <v>30</v>
       </c>
@@ -2282,7 +2331,7 @@
       <c r="AL56" s="16"/>
       <c r="AM56" s="16"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB57" s="16"/>
       <c r="AC57" s="16"/>
       <c r="AD57" s="16"/>
@@ -2296,7 +2345,7 @@
       <c r="AL57" s="16"/>
       <c r="AM57" s="16"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>102</v>
       </c>
@@ -2322,7 +2371,7 @@
       <c r="AL58" s="16"/>
       <c r="AM58" s="16"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f>(B59+C59)/2</f>
         <v>7</v>
@@ -2352,7 +2401,7 @@
       <c r="AL59" s="16"/>
       <c r="AM59" s="16"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>8</v>
       </c>
@@ -2369,7 +2418,7 @@
       <c r="AL60" s="16"/>
       <c r="AM60" s="16"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB61" s="16"/>
       <c r="AC61" s="16"/>
       <c r="AD61" s="16"/>
@@ -2383,7 +2432,7 @@
       <c r="AL61" s="16"/>
       <c r="AM61" s="16"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>5</v>
       </c>
@@ -2412,7 +2461,7 @@
       <c r="AL62" s="16"/>
       <c r="AM62" s="16"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB63" s="16"/>
       <c r="AC63" s="16"/>
       <c r="AD63" s="16"/>
@@ -2426,7 +2475,7 @@
       <c r="AL63" s="16"/>
       <c r="AM63" s="16"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>103</v>
       </c>
@@ -2455,7 +2504,7 @@
       <c r="AL64" s="16"/>
       <c r="AM64" s="16"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f>0.025*G20+1</f>
         <v>4.125</v>
@@ -2489,7 +2538,7 @@
       <c r="AL65" s="16"/>
       <c r="AM65" s="16"/>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>8</v>
       </c>
@@ -2512,7 +2561,7 @@
       <c r="AL66" s="16"/>
       <c r="AM66" s="16"/>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB67" s="16"/>
       <c r="AC67" s="16"/>
       <c r="AD67" s="16"/>
@@ -2526,7 +2575,7 @@
       <c r="AL67" s="16"/>
       <c r="AM67" s="16"/>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>43</v>
       </c>
@@ -2570,7 +2619,7 @@
       <c r="AL68" s="16"/>
       <c r="AM68" s="16"/>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f>(B69+C69)/2</f>
         <v>16.125</v>
@@ -2623,7 +2672,7 @@
       <c r="AL69" s="16"/>
       <c r="AM69" s="16"/>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>16</v>
       </c>
@@ -2646,7 +2695,7 @@
       <c r="AL70" s="16"/>
       <c r="AM70" s="16"/>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB71" s="16"/>
       <c r="AC71" s="16"/>
       <c r="AD71" s="16"/>
@@ -2660,7 +2709,7 @@
       <c r="AL71" s="16"/>
       <c r="AM71" s="16"/>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>6</v>
       </c>
@@ -2689,7 +2738,7 @@
       <c r="AL72" s="16"/>
       <c r="AM72" s="16"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AB73" s="16"/>
       <c r="AC73" s="16"/>
       <c r="AD73" s="16"/>
@@ -2703,7 +2752,7 @@
       <c r="AL73" s="16"/>
       <c r="AM73" s="16"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>27</v>
       </c>
@@ -2725,7 +2774,7 @@
       </c>
       <c r="AB74" s="16"/>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
@@ -2752,7 +2801,7 @@
       </c>
       <c r="AB75" s="16"/>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>33</v>
       </c>
@@ -2772,13 +2821,13 @@
       <c r="M76" s="4"/>
       <c r="AB76" s="16"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="H77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="AB77" s="16"/>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="G78" s="1">
         <v>100</v>
       </c>
@@ -2789,7 +2838,7 @@
       <c r="M78" s="4"/>
       <c r="AB78" s="16"/>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>35</v>
       </c>
@@ -2814,7 +2863,7 @@
       </c>
       <c r="AB79" s="16"/>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>1.1499999999999999</v>
       </c>
@@ -2843,10 +2892,10 @@
       </c>
       <c r="AB80" s="16"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB81" s="16"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>39</v>
       </c>
@@ -2870,7 +2919,7 @@
       </c>
       <c r="AB82" s="16"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f>2*G78*COS(0*PI()/180)/(K8+1)/L78</f>
         <v>20</v>
@@ -2897,7 +2946,7 @@
       </c>
       <c r="AB83" s="16"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>20</v>
       </c>
@@ -2907,13 +2956,13 @@
       </c>
       <c r="AB84" s="16"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H85" s="2" t="s">
         <v>93</v>
       </c>
       <c r="AB85" s="16"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>45</v>
       </c>
@@ -2937,7 +2986,7 @@
       </c>
       <c r="AB86" s="16"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <f>I83+2*L78</f>
         <v>44</v>
@@ -2968,10 +3017,10 @@
       </c>
       <c r="AB87" s="16"/>
     </row>
-    <row r="88" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB88" s="16"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
@@ -2992,7 +3041,7 @@
       </c>
       <c r="AB89" s="16"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1</v>
       </c>
@@ -3016,10 +3065,10 @@
       <c r="M90" s="9"/>
       <c r="AB90" s="16"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB91" s="16"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>56</v>
       </c>
@@ -3045,7 +3094,7 @@
       <c r="M92" s="13"/>
       <c r="AB92" s="17"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <f>2*K10*1000/I83</f>
         <v>1619.7212940018173</v>
@@ -3076,7 +3125,7 @@
       <c r="M93" s="13"/>
       <c r="AB93" s="16"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -3092,7 +3141,7 @@
       <c r="M94" s="13"/>
       <c r="AB94" s="16"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>60</v>
       </c>
@@ -3122,7 +3171,7 @@
       </c>
       <c r="AB95" s="16"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>1.1200000000000001</v>
       </c>
@@ -3155,7 +3204,7 @@
       </c>
       <c r="AB96" s="16"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -3171,7 +3220,7 @@
       <c r="M97" s="13"/>
       <c r="AB97" s="16"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>82</v>
       </c>
@@ -3201,7 +3250,7 @@
       </c>
       <c r="AB98" s="16"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>1.75</v>
       </c>
@@ -3236,7 +3285,7 @@
       </c>
       <c r="AB99" s="16"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -3252,7 +3301,7 @@
       <c r="M100" s="13"/>
       <c r="AB100" s="18"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>74</v>
       </c>
@@ -3280,7 +3329,7 @@
       <c r="M101" s="13"/>
       <c r="AB101" s="16"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <f>K99/K96</f>
         <v>65.385958784491791</v>
@@ -3313,7 +3362,7 @@
       <c r="M102" s="13"/>
       <c r="AB102" s="16"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3329,7 +3378,7 @@
       <c r="M103" s="4"/>
       <c r="AB103" s="16"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>7</v>
       </c>
@@ -3347,7 +3396,7 @@
       <c r="M104" s="6"/>
       <c r="AB104" s="16"/>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>109</v>
       </c>
@@ -3372,7 +3421,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
@@ -3396,7 +3445,7 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
@@ -3411,7 +3460,7 @@
       </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>203</v>
       </c>
@@ -3436,7 +3485,7 @@
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>205</v>
       </c>
@@ -3461,7 +3510,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>8</v>
       </c>
@@ -3478,7 +3527,7 @@
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>56</v>
       </c>
@@ -3507,7 +3556,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f>A35</f>
         <v>1295.7770352014538</v>
@@ -3545,7 +3594,7 @@
         <v>195.88464672530702</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>128</v>
       </c>
@@ -3568,7 +3617,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f>K115+M115-C35</f>
         <v>0</v>
@@ -3595,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>134</v>
       </c>
@@ -3618,7 +3667,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f>G118/G109/1000</f>
         <v>3.1841916448816274E-2</v>
@@ -3645,18 +3694,18 @@
         <v>2420.1498682494625</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f>M121*10^6/60/B10/1000</f>
         <v>42.458769618411623</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>56</v>
       </c>
@@ -3688,7 +3737,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f>A115</f>
         <v>1295.7770352014538</v>
@@ -3728,7 +3777,7 @@
         <v>-235.28785210127091</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>146</v>
       </c>
@@ -3748,7 +3797,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f>1/2/E127*(A127*E127+K127*(F127+2*E127))</f>
         <v>3297.4176267067205</v>
@@ -3774,7 +3823,7 @@
         <v>4428.2931816216133</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>151</v>
       </c>
@@ -3797,7 +3846,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f>C127/G110/1000</f>
         <v>2.0617068204269531E-2</v>
@@ -3824,18 +3873,18 @@
         <v>31.599121461248398</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f>M133*1000000/60/B10/1000</f>
         <v>0.55437055195172624</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>10</v>
       </c>
@@ -3852,7 +3901,7 @@
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>23</v>
       </c>
@@ -3889,7 +3938,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f>K10</f>
         <v>32.394425880036344</v>
@@ -3928,10 +3977,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D142" s="11"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>24</v>
       </c>
@@ -3961,7 +4010,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f>K11</f>
         <v>124.43346869039561</v>
@@ -3994,7 +4043,7 @@
         <v>101.91111276854677</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>11</v>
       </c>
@@ -4011,7 +4060,7 @@
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4026,7 +4075,7 @@
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>157</v>
       </c>
@@ -4047,7 +4096,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>780</v>
       </c>
@@ -4072,7 +4121,7 @@
         <v>54148.26023792474</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>112</v>
       </c>
@@ -4095,7 +4144,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f>B141</f>
         <v>20</v>
@@ -4125,7 +4174,7 @@
         <v>68.943706213536416</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -4140,7 +4189,7 @@
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
@@ -4161,7 +4210,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>1.78</v>
       </c>
@@ -4181,7 +4230,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>172</v>
       </c>
@@ -4192,7 +4241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f>E149/(C155/G155*I152+I155*I152)</f>
         <v>9.6342503923946694</v>
@@ -4206,7 +4255,7 @@
         <v>3.5560890946390122</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -4221,7 +4270,7 @@
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -4250,7 +4299,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>780</v>
       </c>
@@ -4280,7 +4329,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -4295,7 +4344,7 @@
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>170</v>
       </c>
@@ -4326,7 +4375,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>0.1</v>
       </c>
@@ -4363,7 +4412,7 @@
         <v>50275.254894812031</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -4378,7 +4427,7 @@
       <c r="L165" s="12"/>
       <c r="M165" s="12"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>160</v>
       </c>
@@ -4407,7 +4456,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <f>PI()*E164^3/16-F164*G164*(E164-G164)^2/2/E164</f>
         <v>1855.0935473276436</v>
@@ -4443,7 +4492,7 @@
         <v>2.8597687416068953</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4458,7 +4507,7 @@
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>178</v>
       </c>
@@ -4483,7 +4532,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>1.7</v>
       </c>
@@ -4509,7 +4558,7 @@
         <v>61.06660574876998</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>182</v>
       </c>
@@ -4529,7 +4578,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f>2*K170</f>
         <v>3067.9615757712822</v>
@@ -4551,7 +4600,7 @@
         <v>2.8037470352825449</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4566,7 +4615,7 @@
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>166</v>
       </c>
@@ -4590,7 +4639,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>1.78</v>
       </c>
@@ -4616,7 +4665,7 @@
         <v>2090.7299109640071</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>162</v>
       </c>
@@ -4633,7 +4682,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f>A144*1000/2/M176</f>
         <v>29.758379606532017</v>
@@ -4651,7 +4700,7 @@
         <v>2.8624836775138074</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -4666,7 +4715,7 @@
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>166</v>
       </c>
@@ -4687,7 +4736,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>1.78</v>
       </c>
@@ -4709,7 +4758,7 @@
         <v>62450</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>105</v>
       </c>
@@ -4732,7 +4781,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f>C144</f>
         <v>8</v>
@@ -4762,7 +4811,7 @@
         <v>5.0687020694587952</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>183</v>
       </c>
@@ -4773,7 +4822,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f>E161/(C182/G182*J185+0.1*J185)</f>
         <v>5.6580486111828963</v>
@@ -4783,7 +4832,7 @@
         <v>3.7753372911181553</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -4805,24 +4854,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reducer/17.xlsx
+++ b/Reducer/17.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artem\Desktop\Харкевич\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artem\Desktop\PSP\Reducer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DE793-AE48-48EE-A54F-F56BDBE59BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B63FAF-A8EE-4991-B934-0A2DF87C71FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2352" yWindow="1560" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
